--- a/Assets/06.Table/GuideMission.xlsx
+++ b/Assets/06.Table/GuideMission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63993878-711E-4C39-9488-6FFBFAC9E4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1BA050-9D65-4E7F-AC6F-7E76CB22B346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuideMission" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오른쪽 상단 메뉴의 요괴사냥에서 십만동굴을 플레이 하세요(레벨10만)</t>
+    <t>오른쪽 상단 메뉴의 요괴사냥에서 십만동굴을 클리어 하세요(레벨10만)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +593,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
